--- a/271025_Results_Med/output/m2/27102025_mod2_by_gender.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_gender.xlsx
@@ -1452,17 +1452,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>179 (95.7%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>198 (94.3%)</t>
         </is>
       </c>
       <c r="F37">
@@ -1482,17 +1482,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>179 (95.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>198 (94.3%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F38">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>132 (70.2%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>180 (85.7%)</t>
         </is>
       </c>
       <c r="F43">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F44">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>132 (70.2%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>180 (85.7%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F45">

--- a/271025_Results_Med/output/m2/27102025_mod2_by_gender.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_gender.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="34">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="36">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="37">
@@ -1452,21 +1452,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>179 (95.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>198 (94.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="38">
@@ -1482,21 +1482,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>179 (95.2%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>198 (94.3%)</t>
         </is>
       </c>
       <c r="F38">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="39">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1522,41 +1522,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.4132</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22 (11.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F40">
-        <v>0.0024</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="41">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13 (6.9%)</t>
+          <t>22 (11.7%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F41">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 (2.9%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F42">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>132 (70.2%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>180 (85.7%)</t>
+          <t>6 (2.9%)</t>
         </is>
       </c>
       <c r="F43">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>132 (70.2%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>180 (85.7%)</t>
         </is>
       </c>
       <c r="F44">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F45">
@@ -1722,17 +1722,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F46">
@@ -1742,28 +1742,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>188 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>210 (100.0%)</t>
-        </is>
+          <t>3 (1.4%)</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>0.0024</v>
       </c>
     </row>
     <row r="48">
@@ -2474,16 +2477,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20 (10.8%)</t>
+          <t>20 (10.6%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>32 (15.5%)</t>
+          <t>32 (15.2%)</t>
         </is>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="72">
@@ -2499,7 +2502,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2513,7 +2516,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="73">
@@ -2529,21 +2532,21 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21 (11.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12 (5.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74">
@@ -2559,7 +2562,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2569,11 +2572,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="75">
@@ -2589,21 +2592,21 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>23 (12.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>67 (32.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="76">
@@ -2619,21 +2622,21 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>112 (60.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>82 (39.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="77">
@@ -2649,195 +2652,315 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>21 (11.2%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8 (3.9%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>39.0 (26.0–56.2)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>44.0 (30.0–59.8)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F78">
-        <v>0.0304</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22.5 (15.0–35.0)</t>
+          <t>23 (12.2%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>67 (31.9%)</t>
         </is>
       </c>
       <c r="F79">
-        <v>0.4378</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5.5 (5.0–15.0)</t>
+          <t>112 (59.6%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>82 (39.0%)</t>
         </is>
       </c>
       <c r="F80">
-        <v>0.1961</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.5)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="F81">
-        <v>0.5096000000000001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>39.0 (26.0–56.2)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0 (16.2–40.0)</t>
+          <t>44.0 (30.0–59.8)</t>
         </is>
       </c>
       <c r="F82">
-        <v>0.5624</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>22.5 (15.0–35.0)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="F83">
-        <v>0.7896</v>
+        <v>0.4378</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.5 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>0.1961</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.5)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>0.5096000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.0 (16.2–40.0)</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>0.5624</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>0.7896</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>17.5 (10.0–22.5)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>20.0 (16.2–50.0)</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="F88">
         <v>0.4324</v>
       </c>
     </row>
